--- a/final_data_pipeline/output/311313longform_elec_options.xlsx
+++ b/final_data_pipeline/output/311313longform_elec_options.xlsx
@@ -621,7 +621,7 @@
         <v>49</v>
       </c>
       <c r="K2">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="L2">
         <v>8000</v>
@@ -636,10 +636,10 @@
         <v>1033540.390911294</v>
       </c>
       <c r="R2">
-        <v>1.424052774018944</v>
+        <v>1.523070892784755</v>
       </c>
       <c r="S2">
-        <v>1.509252539912917</v>
+        <v>1.622381208625714</v>
       </c>
       <c r="T2">
         <v>129.1925488639118</v>
@@ -674,7 +674,7 @@
         <v>50</v>
       </c>
       <c r="K3">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="L3">
         <v>8000</v>
@@ -821,7 +821,7 @@
         <v>50</v>
       </c>
       <c r="K6">
-        <v>10</v>
+        <v>17.72453703703706</v>
       </c>
       <c r="L6">
         <v>8000</v>
@@ -868,7 +868,7 @@
         <v>49</v>
       </c>
       <c r="K7">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="L7">
         <v>8000</v>
@@ -883,10 +883,10 @@
         <v>1999.58903506598</v>
       </c>
       <c r="R7">
-        <v>1.424052774018944</v>
+        <v>1.32738293362297</v>
       </c>
       <c r="S7">
-        <v>1.509252539912917</v>
+        <v>1.399902772843707</v>
       </c>
       <c r="T7">
         <v>0.2499486293832475</v>
@@ -921,7 +921,7 @@
         <v>50</v>
       </c>
       <c r="K8">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="L8">
         <v>8000</v>
@@ -968,7 +968,7 @@
         <v>50</v>
       </c>
       <c r="K9">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="L9">
         <v>8000</v>
@@ -1015,7 +1015,7 @@
         <v>49</v>
       </c>
       <c r="K10">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="L10">
         <v>8000</v>
@@ -1030,10 +1030,10 @@
         <v>329553.7431346105</v>
       </c>
       <c r="R10">
-        <v>0.9194563882063882</v>
+        <v>0.9359630391213685</v>
       </c>
       <c r="S10">
-        <v>0.940668567807351</v>
+        <v>0.9581010400034263</v>
       </c>
       <c r="T10">
         <v>41.19421789182632</v>
@@ -1068,7 +1068,7 @@
         <v>50</v>
       </c>
       <c r="K11">
-        <v>10</v>
+        <v>-3.083333333333334</v>
       </c>
       <c r="L11">
         <v>8000</v>
@@ -1115,7 +1115,7 @@
         <v>50</v>
       </c>
       <c r="K12">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="L12">
         <v>8000</v>
@@ -1162,7 +1162,7 @@
         <v>50</v>
       </c>
       <c r="K13">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="L13">
         <v>8000</v>
@@ -1209,7 +1209,7 @@
         <v>50</v>
       </c>
       <c r="K14">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="L14">
         <v>8000</v>
@@ -1256,7 +1256,7 @@
         <v>49</v>
       </c>
       <c r="K15">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="L15">
         <v>8000</v>
@@ -1271,10 +1271,10 @@
         <v>13584.38203503639</v>
       </c>
       <c r="R15">
-        <v>0.9194563882063882</v>
+        <v>0.9337049960039765</v>
       </c>
       <c r="S15">
-        <v>0.940668567807351</v>
+        <v>0.9557151767570068</v>
       </c>
       <c r="T15">
         <v>1.698047754379549</v>
@@ -1603,7 +1603,7 @@
         <v>50</v>
       </c>
       <c r="K22">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="L22">
         <v>8000</v>
@@ -1650,7 +1650,7 @@
         <v>49</v>
       </c>
       <c r="K23">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="L23">
         <v>8000</v>
@@ -1665,10 +1665,10 @@
         <v>296480.9719889741</v>
       </c>
       <c r="R23">
-        <v>0.9194563882063882</v>
+        <v>0.9359630391213685</v>
       </c>
       <c r="S23">
-        <v>0.940668567807351</v>
+        <v>0.9581010400034263</v>
       </c>
       <c r="T23">
         <v>37.06012149862176</v>
@@ -1903,7 +1903,7 @@
         <v>49</v>
       </c>
       <c r="K28">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="L28">
         <v>8000</v>
@@ -1918,10 +1918,10 @@
         <v>860858.965189144</v>
       </c>
       <c r="R28">
-        <v>1.424052774018944</v>
+        <v>1.473592088566053</v>
       </c>
       <c r="S28">
-        <v>1.509252539912917</v>
+        <v>1.565708370582976</v>
       </c>
       <c r="T28">
         <v>107.607370648643</v>
@@ -1956,7 +1956,7 @@
         <v>50</v>
       </c>
       <c r="K29">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="L29">
         <v>8000</v>
@@ -2003,7 +2003,7 @@
         <v>50</v>
       </c>
       <c r="K30">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="L30">
         <v>8000</v>
@@ -2344,7 +2344,7 @@
         <v>49</v>
       </c>
       <c r="K37">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="L37">
         <v>8000</v>
@@ -2359,10 +2359,10 @@
         <v>11175.27744273596</v>
       </c>
       <c r="R37">
-        <v>0.9194563882063882</v>
+        <v>0.9337049960039765</v>
       </c>
       <c r="S37">
-        <v>0.940668567807351</v>
+        <v>0.9557151767570068</v>
       </c>
       <c r="T37">
         <v>1.396909680341995</v>
@@ -2397,7 +2397,7 @@
         <v>50</v>
       </c>
       <c r="K38">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="L38">
         <v>8000</v>
